--- a/output/fit_clients/fit_round_99.xlsx
+++ b/output/fit_clients/fit_round_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9207358668.967617</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004296330853782212</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.702485439201201</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9436776411224718</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.702485439201201</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6284436555.242167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005274230931804159</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.251985299538911</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8984735648623845</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.251985299538911</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5052686544.915388</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003606433876514948</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.337036041635284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9218658801944973</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.337036041635284</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4872434165.706546</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003353759175845399</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.352365973562145</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8351414867557789</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.352365973562145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7289646398.422736</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002345472639816415</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.125336818793315</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8605492825848536</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.125336818793315</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7396051024.147128</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001223957243779017</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.405913854700166</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9218269977853009</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.405913854700166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6837635269.995505</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003067812166780044</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.927641501727099</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.954096110059677</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-2.927641501727099</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4686635097.962618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004390870890509635</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.587722828118006</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8936524930601281</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.587722828118006</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3449754425.25446</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004097261827227677</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>22</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650116</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.248548175560596</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9274442154817335</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.248548175560596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3559636900.608274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001289464124859289</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.272058653090517</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7925551000843656</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.272058653090517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6844769449.217629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001679470390012112</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.658076985465692</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9784948804242313</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.658076985465692</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4460159663.680819</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003099826621868734</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.245999712536355</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.022397116628148</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.245999712536355</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6880397289.765686</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003067842351753301</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.55667755149027</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8880233417385415</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.55667755149027</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5474427346.059263</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005085790308782452</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.98027718425171</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.987734636303732</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-2.98027718425171</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6049693247.034099</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003946536801992048</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.708138359232245</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9117231471250767</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.708138359232245</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4699627037.666627</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003185337119158279</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.558365579224464</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9337718598733589</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.558365579224464</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5156897132.019871</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001299962673004659</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8521315184209095</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.450870849397592</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05908387236083</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.450870849397592</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2957982141.077615</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001485052051681044</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1894154739636069</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.283753260959192</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.150144787247809</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.283753260959192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5939342758.999802</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001071188569471445</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>16</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.576325310945734</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.815111563483242</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.576325310945734</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>8212216290.518035</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004215044254576084</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8546026670991175</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.545696640448071</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.009176352159707</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.545696640448071</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5203780467.376257</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005422993335400053</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.430727012384879</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8027576859705658</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.430727012384879</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8325513053.338928</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001942482815034688</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.123785245114333</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.867447725030136</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.123785245114333</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5960932114.733493</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003622228405489995</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5692607356135587</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818316</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.543890821149526</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.8893774486277285</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.543890821149526</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6314799793.27031</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003718206116015939</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>15</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.780014446775521</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9326433721450299</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.780014446775521</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3906829085.000472</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0008702922260013158</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>23</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9112631827908937</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.063251093756919</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.00086874951847</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.063251093756919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>5910336217.151904</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003083736855923491</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971373</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.460982436864832</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9306134157430463</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.460982436864832</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8046618422.590089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005309369127830595</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.746480080642445</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9172459359979005</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.746480080642445</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6367852493.283597</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001273751411762175</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.3883632383228838</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.288533662962607</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.485093665020671</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.6748311321336331</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.485093665020671</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>9021558332.459209</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003221243728447762</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>24</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090876</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.058628869848901</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8603826583989529</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.058628869848901</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5606102685.140763</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002444631010877431</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>22</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.350938385227997</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9523377449788389</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.350938385227997</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3322654931.254888</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001338006746307072</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.1881784021829972</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.518696143466571</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.2579365263442205</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.518696143466571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>7712692948.731563</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002480045835704612</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>16</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.654700340607295</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.733217709657268</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.834739051330941</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.733217709657268</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7625281532.693753</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004061113592768634</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.645784355739308</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7529225332499022</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.645784355739308</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7043895630.502259</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002478684236743005</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>17</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.55973227163868</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9294425295061155</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.55973227163868</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7769372312.045004</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002721882817055062</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380638</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.495290451280605</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.008228923759136</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.495290451280605</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5468685224.686941</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.00589136016110828</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.404960037412826</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9941833061904073</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.404960037412826</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4160141618.373568</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004606916836160011</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.483990320754086</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9128774965398991</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.483990320754086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4152738282.090528</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002712241553028473</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>18</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542553</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.693181783196796</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8494217682451398</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.693181783196796</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4756291324.545191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004562081961239222</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>21</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.517240139937341</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9660872146589401</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.517240139937341</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7059132590.570043</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001309249114557705</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.829685892341277</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9315135173043672</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.829685892341277</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5950180092.067804</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003770684320107156</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>19</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.334713916400095</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9723108395322712</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.334713916400095</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6285188121.241385</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004602542999616916</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>19</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.556577136522725</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9118410819141662</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.556577136522725</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6784916725.432148</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001448733554098272</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>24</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.308639375858043</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9198121389836418</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.308639375858043</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5800980980.335765</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001209563569878844</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.848621950894847</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9564135623590604</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.848621950894847</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10887098196.5513</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00423506974475346</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.30276829662274</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8053326446472301</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.30276829662274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7955324518.841434</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002596673295251321</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.297024267832485</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8847015873966061</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.297024267832485</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6122618375.969627</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003184418197662548</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>2.767701010721048</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9369961672619543</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-2.767701010721048</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5152511339.784628</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005281490293400289</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>23</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9166477324573586</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.363728406133815</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.05785596098432</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.363728406133815</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>5366726496.981075</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00247065834091123</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.881584874980841</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.9979445972482642</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-2.881584874980841</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3464016578.360905</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005040377083083959</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.394700704409927</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9490900246537791</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.394700704409927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8082244195.511013</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002058643795821394</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.312495053400637</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8374457117728169</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.312495053400637</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6305737577.967336</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003327541076174833</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.394917571978884</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9074071236384316</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.394917571978884</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6181752124.415005</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.00355951745364481</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>23</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.9141677261977862</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.151630450128108</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.025031548424712</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.151630450128108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8339624371.929222</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.002900832321359174</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.370954051585016</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.904037648351338</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.370954051585016</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4234081686.040745</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002789145855520317</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.472639359323742</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9006157693614678</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.472639359323742</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7848435919.746384</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003298269949175614</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>22</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.235136352147191</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8028023353265311</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.235136352147191</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>5590111878.675372</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002182097410055481</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.28882142616954</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8386168209678068</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.28882142616954</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7178238616.002901</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004588452257844482</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>20</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.342194072812479</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8800901890627659</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.342194072812479</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5765695751.304252</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003928584887027117</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>23</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.109684559224271</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8078993963880563</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.109684559224271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>5133880499.32067</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004277748062332645</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>28</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6087244551284121</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.711601025879344</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8635627510531203</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.711601025879344</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6531228767.109749</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004191710386227199</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.018204932578382</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8684132996562018</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.018204932578382</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>9039458476.8885</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004859963035056316</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.001950972561164</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8722903544125402</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.001950972561164</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5255980330.32827</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004511573234469396</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>18</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.458142851435627</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8811639495049099</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.458142851435627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4665637365.683202</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005407466779206707</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
         <v>26</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2827993040111074</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.560407906007606</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.4991679527684341</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.560407906007606</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4326434406.00766</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003735192171428095</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>19</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.473228011937929</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8983538752038523</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.473228011937929</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5216952210.632211</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.005515395614801165</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.72721479032395</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8752907140735234</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.72721479032395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5759152259.025069</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002764924871504109</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>23</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.098366674194264</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7157640754058767</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.098366674194264</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4698886653.05599</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009055407868820981</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>14</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2.881573051068348</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9742171274906577</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-2.881573051068348</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>8125943501.922058</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003835271417064306</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.38250383436302</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8776528928300884</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.38250383436302</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3998268846.045074</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002896789539944996</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.672781507282046</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8037563800827444</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.672781507282046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>6172622442.745895</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001882439468536541</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.495593040804759</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.048781045187357</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.495593040804759</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6735776294.848048</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001123714084928232</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.701055860647271</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9552743000615765</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.701055860647271</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6493188358.431395</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004751632958119902</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>22</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.213798925765743</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.848392332466514</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.213798925765743</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7144459878.752708</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003905623815794961</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
         <v>19</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.520039471844053</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8684132996562018</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.520039471844053</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5298423672.48506</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002423540188875459</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>21</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418908</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.416156731586185</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9196952263434446</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.416156731586185</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7158661671.005848</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.006005340961329894</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2.848308928502507</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.979424172061356</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-2.848308928502507</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6106704056.093041</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004964980930761062</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>22</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9562055535428571</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.314306770842473</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.128196013468037</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.314306770842473</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7455275788.600472</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002280181683921372</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>17</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.488966106849183</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9381576260787979</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.488966106849183</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5054905137.728692</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003198486956577986</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.62415355957731</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9650336610000111</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.62415355957731</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6574025516.556631</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004439008872862198</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.222897281193969</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>2.945228996801051</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.4888304976462822</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-2.945228996801051</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6266124109.186434</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005227505832909014</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>23</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.9821727305173729</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.310719785566408</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.120249347078045</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.310719785566408</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>6786194095.425323</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002908151238586083</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>26</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.039932869240887</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.819284658422451</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.039932869240887</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>4905005266.171814</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.003809065917675228</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>24</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.161737514670751</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9351673238105845</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.161737514670751</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3684308785.397137</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002761968402316447</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>25</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.02634380701123638</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.088570055061941</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.4590953743311726</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.088570055061941</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8805747265.63975</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002720691027250087</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>23</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.44693513123075</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.495237894738247</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9672137407179876</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.495237894738247</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4177936314.467396</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001072638010700097</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>30</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1.961872209559429</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9418998267516803</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-1.961872209559429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7348312726.120565</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005081844057606938</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.432078584288919</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8446177730258585</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.432078584288919</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>8003318995.300984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004364949860380854</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>16</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758226</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.744661758405276</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4020151261036848</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.744661758405276</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6648685953.166849</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003319407194773708</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.568582231904788</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9489011744079253</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.568582231904788</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5450613398.652865</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.00388210781482327</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.675973162336609</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8125234812320792</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.675973162336609</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4629433461.906486</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003554365175830373</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>15</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.793281308271848</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.046736614508527</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.793281308271848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5641148517.064171</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001763180238967703</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.397146777217114</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9185494448714346</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.397146777217114</v>
+        <v>36</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5592705925.661905</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001544553794343226</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>17</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.618560496565341</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.9949898805749677</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.618560496565341</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6424605198.715234</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002741971907815928</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>16</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.573142138526046</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9161753406751318</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.573142138526046</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7586344597.174742</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002371883178948329</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>25</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.198810451472873</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9120769057441827</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.198810451472873</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7511689397.28852</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004513930127957645</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.962404597797743</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.52099306968256</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.099060409962559</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.52099306968256</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8449951435.085685</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003729438215055766</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.38250383436302</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8636319393818203</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.38250383436302</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2919163475.420718</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004929371408871783</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>24</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9457189504762546</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.237113442257873</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.102657271116533</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.237113442257873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3940304519.623232</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00332672063396921</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>16</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6610370784944782</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.570943753231452</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8299526097896877</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.570943753231452</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8213804851.985751</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00139086482290462</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>23</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.984159346517811</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480225</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.51629876245552</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.113459751098111</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.51629876245552</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_99.xlsx
+++ b/output/fit_clients/fit_round_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9207358668.967617</v>
+        <v>1630324601.374278</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004296330853782212</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>24</v>
+        <v>0.1007683516110067</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03155401499950893</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>815162246.5427992</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2269909800.090382</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1475594536915032</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04247685856984447</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6284436555.242167</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005274230931804159</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>24</v>
+      <c r="J3" t="n">
+        <v>1134954981.836882</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5052686544.915388</v>
+        <v>3438598051.803998</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003606433876514948</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22</v>
+        <v>0.1582239410760228</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03096856069090733</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1719299000.238437</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4872434165.706546</v>
+        <v>4084796794.062806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003353759175845399</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06898413118640066</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0309419362659524</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2042398395.083674</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7289646398.422736</v>
+        <v>1909415818.637124</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002345472639816415</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>21</v>
+        <v>0.09389177714950987</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05023543934753352</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
+      <c r="J6" t="n">
+        <v>954707948.649894</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7396051024.147128</v>
+        <v>2657786098.89336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001223957243779017</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.08033529816100907</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03595901215655951</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1328893047.196438</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>497</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3065298685.40023</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2098322702932102</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02841804879569959</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>513</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6837635269.995505</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003067812166780044</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
+      <c r="I8" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1532649406.812242</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4686635097.962618</v>
+        <v>1770210411.235278</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004390870890509635</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
+        <v>0.1406420028652851</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03037823541424414</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>885105264.0421673</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3449754425.25446</v>
+        <v>5819363753.724311</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004097261827227677</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1354160910713625</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05239577399851598</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2909682039.575911</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3559636900.608274</v>
+        <v>4109760332.91255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001289464124859289</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1736866101658838</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04976700396380485</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2054880186.770831</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6844769449.217629</v>
+        <v>2033219307.743831</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001679470390012112</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
+        <v>0.18345514894543</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0448032537862055</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>35</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1016609583.270167</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4460159663.680819</v>
+        <v>4272488497.14412</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003099826621868734</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>20</v>
+        <v>0.07128596818179465</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0288460039216814</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2136244289.595739</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6880397289.765686</v>
+        <v>2997284067.411678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003067842351753301</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>23</v>
+        <v>0.1561234362204336</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03876846706377333</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>32</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1498642068.24825</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5474427346.059263</v>
+        <v>1318670692.322852</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005085790308782452</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.07131932737344315</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03492983419249323</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>659335390.4875035</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6049693247.034099</v>
+        <v>2536974593.812962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003946536801992048</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
+        <v>0.1165295662352042</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03857532878750505</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1268487324.348016</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4699627037.666627</v>
+        <v>4525198743.413234</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003185337119158279</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>20</v>
+        <v>0.1449418728645673</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05007227283405007</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2262599380.303494</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5156897132.019871</v>
+        <v>3722697067.163508</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001299962673004659</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>27</v>
+        <v>0.1615357681861364</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02465134745269792</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1861348511.45814</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2957982141.077615</v>
+        <v>1025467932.234683</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001485052051681044</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1497924646144435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02505832873671402</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>512734001.5207288</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5939342758.999802</v>
+        <v>2534885357.91784</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001071188569471445</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1050212473757766</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02576466498080733</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1267442648.268994</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>8212216290.518035</v>
+        <v>2497032687.274809</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004215044254576084</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>19</v>
+        <v>0.07789870013032761</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04231180899091765</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1248516331.950472</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5203780467.376257</v>
+        <v>3183660474.076971</v>
       </c>
       <c r="F22" t="n">
-        <v>0.005422993335400053</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
+        <v>0.1228500760058114</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05337519146778694</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1591830287.504586</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8325513053.338928</v>
+        <v>1111736761.621592</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001942482815034688</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>19</v>
+        <v>0.138531315521446</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.039671365099737</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>555868432.0973154</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5960932114.733493</v>
+        <v>2811752841.623379</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003622228405489995</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>27</v>
+        <v>0.117356147936681</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03028544677571125</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1405876468.661528</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6314799793.27031</v>
+        <v>1028795659.208739</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003718206116015939</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>22</v>
+        <v>0.09218974968539782</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0286199845635721</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>514397886.8942443</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3906829085.000472</v>
+        <v>1069739320.965644</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0008702922260013158</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09855859968597748</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03785813609659711</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>534869649.5458722</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>5910336217.151904</v>
+        <v>3687083647.61548</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003083736855923491</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>27</v>
+        <v>0.1334844258048737</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02566899285502633</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1843541849.416311</v>
       </c>
     </row>
     <row r="28">
@@ -1211,19 +1377,25 @@
         <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8046618422.590089</v>
+        <v>3227294184.219047</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005309369127830595</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>25</v>
+        <v>0.09171337583604043</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03594743237380479</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1613647122.978319</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6367852493.283597</v>
+        <v>5821081047.619443</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001273751411762175</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>26</v>
+        <v>0.1282122886027768</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02947778340609371</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2910540414.353103</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>9021558332.459209</v>
+        <v>2029180390.126359</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003221243728447762</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
+        <v>0.1319252579931428</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02724848143193841</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1014590235.780131</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5606102685.140763</v>
+        <v>908281893.6668291</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002444631010877431</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>20</v>
+        <v>0.09665326305813476</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04345131293246455</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>454140966.8924006</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3322654931.254888</v>
+        <v>1254929833.784514</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001338006746307072</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07952884715354173</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03791508666400759</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>627464934.4305129</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>7712692948.731563</v>
+        <v>2078233746.585917</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002480045835704612</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>22</v>
+        <v>0.1871620215074448</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04547286584436155</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>28</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1039116947.350779</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7625281532.693753</v>
+        <v>1263699235.645444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004061113592768634</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>30</v>
+        <v>0.09684529917067568</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02038666334953215</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>631849612.3663929</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7043895630.502259</v>
+        <v>959798580.4978231</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002478684236743005</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>26</v>
+        <v>0.07831948664495191</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02758775329570562</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>479899317.5763832</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3122986342.816947</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1448101419638635</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02192508308556993</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7769372312.045004</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.002721882817055062</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>28</v>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1561493143.396106</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2820249557.274096</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1050634650256794</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03473522147867558</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="D37" t="n">
-        <v>573</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5468685224.686941</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.00589136016110828</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>25</v>
+      <c r="I37" t="n">
+        <v>24</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1410124918.673288</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4160141618.373568</v>
+        <v>1889398920.410219</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004606916836160011</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09599595766244229</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03180202974118553</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>944699454.3900725</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4152738282.090528</v>
+        <v>1609163725.406071</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002712241553028473</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1914634416433871</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02300683093632439</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>804581916.4997405</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4756291324.545191</v>
+        <v>1197367072.426625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004562081961239222</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>27</v>
+        <v>0.1405252000430133</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04108929724050583</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>598683578.1139618</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7059132590.570043</v>
+        <v>2287899485.147508</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001309249114557705</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>28</v>
+        <v>0.1371704600598197</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04275486416454679</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1143949788.581521</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5950180092.067804</v>
+        <v>3412721666.002906</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003770684320107156</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>24</v>
+        <v>0.1116428355465864</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02891285661050691</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1706360821.781696</v>
       </c>
     </row>
     <row r="43">
@@ -1631,19 +1887,25 @@
         <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6285188121.241385</v>
+        <v>1876119151.909598</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004602542999616916</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>24</v>
+        <v>0.1490384303205316</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01963470451857379</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" t="n">
+        <v>938059687.2834398</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6784916725.432148</v>
+        <v>1943384561.871908</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001448733554098272</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>26</v>
+        <v>0.08297582386913895</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02656011543681222</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>971692375.9101318</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5800980980.335765</v>
+        <v>1760290580.597262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001209563569878844</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.173332739668144</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03470664696247449</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>880145256.9330585</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10887098196.5513</v>
+        <v>3572131481.96744</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00423506974475346</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>16</v>
+        <v>0.152171701736186</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03713436282328711</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>36</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1786065685.945602</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7955324518.841434</v>
+        <v>5116089542.651425</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002596673295251321</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>16</v>
+        <v>0.1506114408409753</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04396520243578406</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2558044833.663664</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>6122618375.969627</v>
+        <v>4095537274.360818</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003184418197662548</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>18</v>
+        <v>0.1065518252940255</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03420640083322468</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>34</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2047768665.93304</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5152511339.784628</v>
+        <v>1801916184.401724</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005281490293400289</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.1409825323227457</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03488587396891019</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>900958077.2138618</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>5366726496.981075</v>
+        <v>3303599905.441825</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00247065834091123</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>27</v>
+        <v>0.153466558790101</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03772672487431966</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1651799990.88751</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3464016578.360905</v>
+        <v>1100398683.110387</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005040377083083959</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1581011933446905</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0440584268583007</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>550199409.1858354</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8082244195.511013</v>
+        <v>3530367841.541616</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002058643795821394</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>24</v>
+        <v>0.09367639545739533</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05040883679902982</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>41</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1765184004.823172</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6305737577.967336</v>
+        <v>2414367193.646421</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003327541076174833</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>19</v>
+        <v>0.1457961950743447</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02709415565201655</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>28</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1207183669.6544</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6181752124.415005</v>
+        <v>3983035557.578705</v>
       </c>
       <c r="F54" t="n">
-        <v>0.00355951745364481</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>24</v>
+        <v>0.1487615150639755</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03784798402911857</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>35</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1991517841.45711</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8339624371.929222</v>
+        <v>3906894961.574386</v>
       </c>
       <c r="F55" t="n">
-        <v>0.002900832321359174</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>31</v>
+        <v>0.2043780942912435</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.03097365368431041</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>27</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1953447451.536319</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4234081686.040745</v>
+        <v>1642346295.712975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002789145855520317</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1261960090048372</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04500169703207064</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>821173168.9545008</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7848435919.746384</v>
+        <v>4235464273.015829</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003298269949175614</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>23</v>
+        <v>0.1113407777447807</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02286894165010484</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>32</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2117732244.560187</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>5590111878.675372</v>
+        <v>1708154128.243944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002182097410055481</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>24</v>
+        <v>0.1836957456976964</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02439593292266385</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>854077076.2062883</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
+        <v>5</v>
+      </c>
+      <c r="D59" t="n">
+        <v>458</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3531423080.468554</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.08927587745849738</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0346689572218073</v>
+      </c>
+      <c r="H59" t="b">
         <v>1</v>
       </c>
-      <c r="D59" t="n">
-        <v>352</v>
-      </c>
-      <c r="E59" t="n">
-        <v>7178238616.002901</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.004588452257844482</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>13</v>
+      <c r="I59" t="n">
+        <v>28</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1765711538.728349</v>
       </c>
     </row>
     <row r="60">
@@ -2107,19 +2465,25 @@
         <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5765695751.304252</v>
+        <v>3093213499.472635</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003928584887027117</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
+        <v>0.1870628931169808</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02973162334706094</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1546606829.790591</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>5133880499.32067</v>
+        <v>2809313980.630527</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004277748062332645</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>22</v>
+        <v>0.1140605059474017</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02834729882286599</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1404656988.695906</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6531228767.109749</v>
+        <v>1575919420.778243</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004191710386227199</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>17</v>
+        <v>0.1426979589375703</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04513484047841581</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>787959704.7314042</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>9039458476.8885</v>
+        <v>4176640140.520131</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004859963035056316</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.09313300521562526</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03057839441180822</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>23</v>
+      <c r="I63" t="n">
+        <v>28</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2088320124.685912</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5255980330.32827</v>
+        <v>4759699396.358729</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004511573234469396</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1376315469164298</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02375313509565577</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>31</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2379849787.41558</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4665637365.683202</v>
+        <v>5571925237.698563</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005407466779206707</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>26</v>
+        <v>0.1580596483290899</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02486720848691795</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>36</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2785962543.575494</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4326434406.00766</v>
+        <v>4296239248.289335</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003735192171428095</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+        <v>0.1490085116709121</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.033810342010399</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2148119613.529755</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5216952210.632211</v>
+        <v>2892017634.384481</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005515395614801165</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.06868845322295572</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04190488122503636</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1446008844.534418</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5759152259.025069</v>
+        <v>4352968192.821419</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002764924871504109</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>21</v>
+        <v>0.1002661807913395</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04571721658410212</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>32</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2176484113.525811</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4698886653.05599</v>
+        <v>2009284317.985515</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009055407868820981</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>23</v>
+        <v>0.1600338662024704</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05067091140155754</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1004642165.060442</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>8125943501.922058</v>
+        <v>2868751513.596847</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003835271417064306</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.1031202755276957</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03785769140283185</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1434375725.187761</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3998268846.045074</v>
+        <v>4473383687.941258</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002896789539944996</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1545447990806974</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03328954403170201</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2236691910.310323</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>6172622442.745895</v>
+        <v>2052494781.092533</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001882439468536541</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>21</v>
+        <v>0.1079893833000656</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04777466867371002</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1026247328.367</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6735776294.848048</v>
+        <v>3401765360.529279</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001123714084928232</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>23</v>
+        <v>0.06886412747132643</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03790758820375425</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>39</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1700882639.405035</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6493188358.431395</v>
+        <v>3946592302.705257</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004751632958119902</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>22</v>
+        <v>0.1204776357758011</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03190994917227901</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>34</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1973296134.82628</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7144459878.752708</v>
+        <v>2045768412.973707</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003905623815794961</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>19</v>
+        <v>0.1039090153344341</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02416712091463164</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1022884166.284017</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5298423672.48506</v>
+        <v>3475045578.367023</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002423540188875459</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>20</v>
+        <v>0.09041846316629557</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02479674545459593</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1737522751.832366</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7158661671.005848</v>
+        <v>1422012585.890538</v>
       </c>
       <c r="F77" t="n">
-        <v>0.006005340961329894</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>32</v>
+        <v>0.1470474619715655</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02382249275981241</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>711006269.0663574</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6106704056.093041</v>
+        <v>3699795291.707323</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004964980930761062</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>20</v>
+        <v>0.1028976825922584</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04209820267401402</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1849897632.98045</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7455275788.600472</v>
+        <v>1485233532.408738</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002280181683921372</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1453767578626182</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02604290144917731</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>742616797.7582978</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5054905137.728692</v>
+        <v>3999623779.518121</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003198486956577986</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>32</v>
+        <v>0.07206277996602091</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03418761604474088</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1999811889.14271</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6574025516.556631</v>
+        <v>3770433534.392226</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004439008872862198</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1192166060071029</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02880812676361459</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>24</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1885216721.779576</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6266124109.186434</v>
+        <v>5507651115.757428</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005227505832909014</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>19</v>
+        <v>0.1780694813480758</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01834677103760746</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>38</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2753825513.381368</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>6786194095.425323</v>
+        <v>1589757850.612452</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002908151238586083</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>30</v>
+        <v>0.1217356549673454</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04471575836114426</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>794878859.4879827</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>4905005266.171814</v>
+        <v>1610504778.075446</v>
       </c>
       <c r="F84" t="n">
-        <v>0.003809065917675228</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>26</v>
+        <v>0.1110418111865835</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0492555672388035</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>805252451.0158617</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3684308785.397137</v>
+        <v>2652522733.274534</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002761968402316447</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1754972532505958</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05478607653465806</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1326261388.36173</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8805747265.63975</v>
+        <v>2460777776.32211</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002720691027250087</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>35</v>
+        <v>0.1059067079469802</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02334043917544439</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1230388979.768634</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4177936314.467396</v>
+        <v>1374806110.244144</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001072638010700097</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1704494731622232</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03147120368283129</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>687403155.4620414</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7348312726.120565</v>
+        <v>3524835674.147523</v>
       </c>
       <c r="F88" t="n">
-        <v>0.005081844057606938</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1294500577492834</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.0387467698202312</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1762417919.3086</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>8003318995.300984</v>
+        <v>3100634053.57998</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004364949860380854</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>21</v>
+        <v>0.1043543010022806</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03038571505331229</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1550317057.45</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6648685953.166849</v>
+        <v>1701151254.659708</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003319407194773708</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>18</v>
+        <v>0.1289163290708646</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04987540487595318</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>850575642.7926122</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5450613398.652865</v>
+        <v>1777321814.745358</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00388210781482327</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>29</v>
+        <v>0.1228452422559678</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05630569360016702</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>888660909.2463875</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4629433461.906486</v>
+        <v>2917936432.342043</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003554365175830373</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1016393051507185</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03336052779694326</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>19</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1458968231.63136</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5641148517.064171</v>
+        <v>3997382557.458845</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001763180238967703</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>36</v>
+        <v>0.136175068320714</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04083677330737925</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>29</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1998691279.450584</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5592705925.661905</v>
+        <v>2107868090.892159</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001544553794343226</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>33</v>
+        <v>0.1300969577866904</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0277267091466984</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1053934057.756725</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6424605198.715234</v>
+        <v>2970547613.543784</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002741971907815928</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>25</v>
+        <v>0.08450365360489072</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04569791766945031</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>24</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1485273808.571474</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7586344597.174742</v>
+        <v>2211439279.080393</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002371883178948329</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>26</v>
+        <v>0.1042875575820752</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03149028893073257</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1105719603.861442</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>498</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4163787876.921008</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1468615616022483</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01969414300666665</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="D97" t="n">
-        <v>514</v>
-      </c>
-      <c r="E97" t="n">
-        <v>7511689397.28852</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.004513930127957645</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>26</v>
+      <c r="I97" t="n">
+        <v>32</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2081894007.942701</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8449951435.085685</v>
+        <v>3337101368.903393</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003729438215055766</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>37</v>
+        <v>0.1273127854365262</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03233283314718297</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1668550691.932469</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2919163475.420718</v>
+        <v>3113396968.445609</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004929371408871783</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09098488493139553</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03488830502189066</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1556698478.332431</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3940304519.623232</v>
+        <v>3637085020.403541</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00332672063396921</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1722700939268984</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02724534448037123</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>30</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1818542551.830513</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8213804851.985751</v>
+        <v>2749871305.334925</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00139086482290462</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>32</v>
+        <v>0.1962859946671112</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04121733459421301</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>42</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1374935708.590133</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_99.xlsx
+++ b/output/fit_clients/fit_round_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1630324601.374278</v>
+        <v>2378918104.637843</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1007683516110067</v>
+        <v>0.104084340176145</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03155401499950893</v>
+        <v>0.03254511876689688</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>815162246.5427992</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2269909800.090382</v>
+        <v>1801838505.265535</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1475594536915032</v>
+        <v>0.1585532656998501</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04247685856984447</v>
+        <v>0.0420419910073214</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1134954981.836882</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3438598051.803998</v>
+        <v>5155762689.317035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1582239410760228</v>
+        <v>0.139069472332163</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03096856069090733</v>
+        <v>0.03296280420853483</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1719299000.238437</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4084796794.062806</v>
+        <v>3591539439.86447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06898413118640066</v>
+        <v>0.07431025896144092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0309419362659524</v>
+        <v>0.03384220019114717</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2042398395.083674</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1909415818.637124</v>
+        <v>1885781594.084978</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09389177714950987</v>
+        <v>0.1159205266898027</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05023543934753352</v>
+        <v>0.03769708845495441</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>954707948.649894</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2657786098.89336</v>
+        <v>2164246731.921241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08033529816100907</v>
+        <v>0.08035265168424739</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03595901215655951</v>
+        <v>0.03248939628880333</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1328893047.196438</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3065298685.40023</v>
+        <v>2722547576.443543</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2098322702932102</v>
+        <v>0.1541002438292753</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02841804879569959</v>
+        <v>0.02161114165766118</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>32</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1532649406.812242</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1770210411.235278</v>
+        <v>2040243238.543777</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1406420028652851</v>
+        <v>0.1431584386222251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03037823541424414</v>
+        <v>0.03587096052537741</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>885105264.0421673</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5819363753.724311</v>
+        <v>3956266778.00465</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1354160910713625</v>
+        <v>0.1491415592349616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05239577399851598</v>
+        <v>0.041217094618593</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2909682039.575911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4109760332.91255</v>
+        <v>2694698052.933167</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1736866101658838</v>
+        <v>0.135958119309116</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04976700396380485</v>
+        <v>0.04731121157092344</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>41</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2054880186.770831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2033219307.743831</v>
+        <v>2513247433.544381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18345514894543</v>
+        <v>0.1645470868337678</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0448032537862055</v>
+        <v>0.05140418210263932</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>35</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1016609583.270167</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4272488497.14412</v>
+        <v>3781984360.802894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07128596818179465</v>
+        <v>0.06875749506676035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0288460039216814</v>
+        <v>0.02180325818417522</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2136244289.595739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2997284067.411678</v>
+        <v>3729720172.539939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1561234362204336</v>
+        <v>0.1391386956274367</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03876846706377333</v>
+        <v>0.04353322413283027</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>32</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1498642068.24825</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1318670692.322852</v>
+        <v>1502865083.184804</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07131932737344315</v>
+        <v>0.108820572276471</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03492983419249323</v>
+        <v>0.03081444407128202</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>659335390.4875035</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2536974593.812962</v>
+        <v>2472163687.925222</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1165295662352042</v>
+        <v>0.1071906143672073</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03857532878750505</v>
+        <v>0.03494016517246217</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1268487324.348016</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4525198743.413234</v>
+        <v>4722164151.815919</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1449418728645673</v>
+        <v>0.1174196436364257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05007227283405007</v>
+        <v>0.04281598747890878</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>29</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2262599380.303494</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3722697067.163508</v>
+        <v>3597718610.236069</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1615357681861364</v>
+        <v>0.1421544202560046</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02465134745269792</v>
+        <v>0.0300822099234743</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>33</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1861348511.45814</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1025467932.234683</v>
+        <v>913074342.8381102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1497924646144435</v>
+        <v>0.1472821312085646</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02505832873671402</v>
+        <v>0.02460648329245121</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>512734001.5207288</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2534885357.91784</v>
+        <v>2252922688.707945</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1050212473757766</v>
+        <v>0.1393674722232756</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02576466498080733</v>
+        <v>0.02485492565062475</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1267442648.268994</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2497032687.274809</v>
+        <v>2393781996.389705</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07789870013032761</v>
+        <v>0.07630579620550745</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04231180899091765</v>
+        <v>0.03903687153693267</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1248516331.950472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3183660474.076971</v>
+        <v>2556543991.643826</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1228500760058114</v>
+        <v>0.08765043097522462</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05337519146778694</v>
+        <v>0.04157849999285095</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1591830287.504586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1111736761.621592</v>
+        <v>1393704315.508229</v>
       </c>
       <c r="F23" t="n">
-        <v>0.138531315521446</v>
+        <v>0.1141963267327988</v>
       </c>
       <c r="G23" t="n">
-        <v>0.039671365099737</v>
+        <v>0.04172341120012248</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>555868432.0973154</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2811752841.623379</v>
+        <v>2527899078.364363</v>
       </c>
       <c r="F24" t="n">
-        <v>0.117356147936681</v>
+        <v>0.1097749749767336</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03028544677571125</v>
+        <v>0.02734727549899206</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1405876468.661528</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1028795659.208739</v>
+        <v>1332037343.401327</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09218974968539782</v>
+        <v>0.0781511302091219</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0286199845635721</v>
+        <v>0.02784987945254791</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>514397886.8942443</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1069739320.965644</v>
+        <v>1063638996.245047</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09855859968597748</v>
+        <v>0.08156094887288322</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03785813609659711</v>
+        <v>0.02431290579989089</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>534869649.5458722</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3687083647.61548</v>
+        <v>3033811867.91866</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1334844258048737</v>
+        <v>0.140123627394546</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02566899285502633</v>
+        <v>0.02075519271762601</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1843541849.416311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3227294184.219047</v>
+        <v>2593885342.716277</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09171337583604043</v>
+        <v>0.1385451149120003</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03594743237380479</v>
+        <v>0.04904554959806082</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>32</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1613647122.978319</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5821081047.619443</v>
+        <v>4630225188.860067</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1282122886027768</v>
+        <v>0.1065215056161227</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02947778340609371</v>
+        <v>0.04634128229361852</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>45</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2910540414.353103</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2029180390.126359</v>
+        <v>2368299900.67515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1319252579931428</v>
+        <v>0.1250150116734005</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02724848143193841</v>
+        <v>0.03434556238875029</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1014590235.780131</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>908281893.6668291</v>
+        <v>1070894805.832112</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09665326305813476</v>
+        <v>0.0725484504182299</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04345131293246455</v>
+        <v>0.04865958206016982</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>454140966.8924006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1254929833.784514</v>
+        <v>1557582794.868963</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07952884715354173</v>
+        <v>0.07999946621518719</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03791508666400759</v>
+        <v>0.03607236028136879</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>627464934.4305129</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2078233746.585917</v>
+        <v>3004402445.114999</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1871620215074448</v>
+        <v>0.1509242007525299</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04547286584436155</v>
+        <v>0.06071911470493833</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1039116947.350779</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1263699235.645444</v>
+        <v>1297985687.944409</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09684529917067568</v>
+        <v>0.07832114211185508</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02038666334953215</v>
+        <v>0.02450179202519583</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>631849612.3663929</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>959798580.4978231</v>
+        <v>1348553149.212683</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07831948664495191</v>
+        <v>0.1075172997198214</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02758775329570562</v>
+        <v>0.03311804756019205</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>479899317.5763832</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3122986342.816947</v>
+        <v>2700012019.21259</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1448101419638635</v>
+        <v>0.1729642008425999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02192508308556993</v>
+        <v>0.01971406193063148</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>25</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1561493143.396106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2820249557.274096</v>
+        <v>2295526580.871925</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1050634650256794</v>
+        <v>0.07050780698372684</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03473522147867558</v>
+        <v>0.02893454948230489</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>24</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1410124918.673288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1889398920.410219</v>
+        <v>1345648491.527572</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09599595766244229</v>
+        <v>0.1052044295906696</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03180202974118553</v>
+        <v>0.03125888688694487</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>944699454.3900725</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1609163725.406071</v>
+        <v>1422587959.072596</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1914634416433871</v>
+        <v>0.18755811852312</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02300683093632439</v>
+        <v>0.02462345209867996</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>804581916.4997405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1197367072.426625</v>
+        <v>1206917983.241289</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1405252000430133</v>
+        <v>0.1258345220179125</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04108929724050583</v>
+        <v>0.05529181380687618</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>598683578.1139618</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2287899485.147508</v>
+        <v>1851913386.011388</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1371704600598197</v>
+        <v>0.1377599185961391</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04275486416454679</v>
+        <v>0.03279149791222577</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1143949788.581521</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3412721666.002906</v>
+        <v>4199130334.100431</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1116428355465864</v>
+        <v>0.1043592142658337</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02891285661050691</v>
+        <v>0.03693143140225284</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1706360821.781696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1876119151.909598</v>
+        <v>2746936236.968583</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1490384303205316</v>
+        <v>0.1682314934506068</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01963470451857379</v>
+        <v>0.02485829391379967</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>32</v>
-      </c>
-      <c r="J43" t="n">
-        <v>938059687.2834398</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1943384561.871908</v>
+        <v>1467655862.606895</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08297582386913895</v>
+        <v>0.09389796703233635</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02656011543681222</v>
+        <v>0.02330390225787384</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>971692375.9101318</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1760290580.597262</v>
+        <v>2076261582.199105</v>
       </c>
       <c r="F45" t="n">
-        <v>0.173332739668144</v>
+        <v>0.1697549998204285</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03470664696247449</v>
+        <v>0.0458318129034185</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>880145256.9330585</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3572131481.96744</v>
+        <v>5272355792.471478</v>
       </c>
       <c r="F46" t="n">
-        <v>0.152171701736186</v>
+        <v>0.1297005658925557</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03713436282328711</v>
+        <v>0.03862809421909853</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>36</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1786065685.945602</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5116089542.651425</v>
+        <v>4872082868.64728</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1506114408409753</v>
+        <v>0.2012779455570935</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04396520243578406</v>
+        <v>0.05892505783471014</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>27</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2558044833.663664</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4095537274.360818</v>
+        <v>3996062938.589655</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1065518252940255</v>
+        <v>0.09384466426904779</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03420640083322468</v>
+        <v>0.03690351980667891</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>34</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2047768665.93304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1801916184.401724</v>
+        <v>1506708787.854722</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1409825323227457</v>
+        <v>0.1798703570691467</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03488587396891019</v>
+        <v>0.0442015082095813</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>900958077.2138618</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3303599905.441825</v>
+        <v>3600234703.882172</v>
       </c>
       <c r="F50" t="n">
-        <v>0.153466558790101</v>
+        <v>0.1513472836181491</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03772672487431966</v>
+        <v>0.04658328257462351</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>34</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1651799990.88751</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1100398683.110387</v>
+        <v>1194508172.342309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1581011933446905</v>
+        <v>0.1880025145797524</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0440584268583007</v>
+        <v>0.05013194370827943</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>550199409.1858354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3530367841.541616</v>
+        <v>4267785750.324748</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09367639545739533</v>
+        <v>0.1167228782521235</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05040883679902982</v>
+        <v>0.0396080560880443</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>41</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1765184004.823172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2414367193.646421</v>
+        <v>3051232586.743746</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1457961950743447</v>
+        <v>0.174122732686859</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02709415565201655</v>
+        <v>0.02335902047538376</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>28</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1207183669.6544</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3983035557.578705</v>
+        <v>3297570019.366412</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1487615150639755</v>
+        <v>0.1093661169616237</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03784798402911857</v>
+        <v>0.05224335712037826</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>35</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1991517841.45711</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3906894961.574386</v>
+        <v>3803284059.956274</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2043780942912435</v>
+        <v>0.195058770849159</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03097365368431041</v>
+        <v>0.02503248438866346</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>27</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1953447451.536319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1642346295.712975</v>
+        <v>1492585508.635811</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1261960090048372</v>
+        <v>0.1370917776228439</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04500169703207064</v>
+        <v>0.04811505964475764</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>821173168.9545008</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4235464273.015829</v>
+        <v>3146675037.340814</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1113407777447807</v>
+        <v>0.1336523047779601</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02286894165010484</v>
+        <v>0.02372199415611256</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>32</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2117732244.560187</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1708154128.243944</v>
+        <v>1821588185.743465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1836957456976964</v>
+        <v>0.19464767457327</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02439593292266385</v>
+        <v>0.03054676719806402</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>854077076.2062883</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3531423080.468554</v>
+        <v>5135701505.419106</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08927587745849738</v>
+        <v>0.1142813700796333</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0346689572218073</v>
+        <v>0.04920046330345011</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>28</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1765711538.728349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3093213499.472635</v>
+        <v>2407862589.831726</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1870628931169808</v>
+        <v>0.1661910409719169</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02973162334706094</v>
+        <v>0.02346749490496408</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>32</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1546606829.790591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2809313980.630527</v>
+        <v>2095530760.696879</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1140605059474017</v>
+        <v>0.17272269070435</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02834729882286599</v>
+        <v>0.02876210183944284</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>34</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1404656988.695906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1575919420.778243</v>
+        <v>1653953390.702993</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1426979589375703</v>
+        <v>0.1241409462848922</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04513484047841581</v>
+        <v>0.04802569990969558</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>787959704.7314042</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4176640140.520131</v>
+        <v>4973621807.502976</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09313300521562526</v>
+        <v>0.1069597723299662</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03057839441180822</v>
+        <v>0.03763968262863068</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>28</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2088320124.685912</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4759699396.358729</v>
+        <v>3543930713.728358</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1376315469164298</v>
+        <v>0.1677829391095611</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02375313509565577</v>
+        <v>0.02969359195136406</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>31</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2379849787.41558</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5571925237.698563</v>
+        <v>4617760071.332392</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1580596483290899</v>
+        <v>0.1228604070880592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02486720848691795</v>
+        <v>0.02234935275950362</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>36</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2785962543.575494</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4296239248.289335</v>
+        <v>5067996528.551262</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1490085116709121</v>
+        <v>0.1185484112899376</v>
       </c>
       <c r="G66" t="n">
-        <v>0.033810342010399</v>
+        <v>0.03834031839926786</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>29</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2148119613.529755</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2892017634.384481</v>
+        <v>3430310361.727008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06868845322295572</v>
+        <v>0.06499597584905173</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04190488122503636</v>
+        <v>0.03657316318815258</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>32</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1446008844.534418</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4352968192.821419</v>
+        <v>5954034864.680201</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1002661807913395</v>
+        <v>0.117053334454219</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04571721658410212</v>
+        <v>0.03490125815277798</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>32</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2176484113.525811</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2009284317.985515</v>
+        <v>2020300571.109207</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1600338662024704</v>
+        <v>0.1230447248329974</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05067091140155754</v>
+        <v>0.05040160153778375</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1004642165.060442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2868751513.596847</v>
+        <v>3391800147.527862</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1031202755276957</v>
+        <v>0.100064380429672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03785769140283185</v>
+        <v>0.04189201072947341</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1434375725.187761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4473383687.941258</v>
+        <v>4613006901.247698</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1545447990806974</v>
+        <v>0.1176121338065571</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03328954403170201</v>
+        <v>0.02142002686026366</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>36</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2236691910.310323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2052494781.092533</v>
+        <v>1482834398.905565</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1079893833000656</v>
+        <v>0.1060678279663098</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04777466867371002</v>
+        <v>0.044608662136476</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1026247328.367</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3401765360.529279</v>
+        <v>2721791521.90159</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06886412747132643</v>
+        <v>0.07761851417351594</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03790758820375425</v>
+        <v>0.04171307281637635</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1700882639.405035</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3946592302.705257</v>
+        <v>3616777916.543697</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1204776357758011</v>
+        <v>0.1501887108330202</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03190994917227901</v>
+        <v>0.02404619265018965</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>34</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1973296134.82628</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2045768412.973707</v>
+        <v>1868259033.500952</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1039090153344341</v>
+        <v>0.1411567865714835</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02416712091463164</v>
+        <v>0.02953470436614065</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1022884166.284017</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3475045578.367023</v>
+        <v>4161967092.440801</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09041846316629557</v>
+        <v>0.07634280743730337</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02479674545459593</v>
+        <v>0.02719363423447349</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>22</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1737522751.832366</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1422012585.890538</v>
+        <v>2238502306.368382</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1470474619715655</v>
+        <v>0.1752951136878007</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02382249275981241</v>
+        <v>0.02610989850146522</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>711006269.0663574</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3699795291.707323</v>
+        <v>3283111676.758965</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1028976825922584</v>
+        <v>0.09685822923992887</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04209820267401402</v>
+        <v>0.03984676637151511</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>35</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1849897632.98045</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1485233532.408738</v>
+        <v>1488512492.588523</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1453767578626182</v>
+        <v>0.1158342817914427</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02604290144917731</v>
+        <v>0.03275341972562747</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>742616797.7582978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3999623779.518121</v>
+        <v>5580021038.116363</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07206277996602091</v>
+        <v>0.07646983365807948</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03418761604474088</v>
+        <v>0.0292944147608147</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1999811889.14271</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3770433534.392226</v>
+        <v>5171988066.3745</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1192166060071029</v>
+        <v>0.1053673436652367</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02880812676361459</v>
+        <v>0.02027964872318249</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1885216721.779576</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5507651115.757428</v>
+        <v>4442379819.703601</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1780694813480758</v>
+        <v>0.2139887318892831</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01834677103760746</v>
+        <v>0.02696936939561793</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>38</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2753825513.381368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1589757850.612452</v>
+        <v>2291924361.335287</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1217356549673454</v>
+        <v>0.1424400046436124</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04471575836114426</v>
+        <v>0.03902482372996057</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>794878859.4879827</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1610504778.075446</v>
+        <v>1566322274.339527</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1110418111865835</v>
+        <v>0.09265811725656259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0492555672388035</v>
+        <v>0.03193897489722887</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>805252451.0158617</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2652522733.274534</v>
+        <v>2840735152.668639</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1754972532505958</v>
+        <v>0.1849422679237716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05478607653465806</v>
+        <v>0.04043728225200753</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>36</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1326261388.36173</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2460777776.32211</v>
+        <v>1959299822.136568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1059067079469802</v>
+        <v>0.1285434879126948</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02334043917544439</v>
+        <v>0.01754033315327902</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1230388979.768634</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374806110.244144</v>
+        <v>1293736216.381779</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1704494731622232</v>
+        <v>0.1862863483001776</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03147120368283129</v>
+        <v>0.03393637837217144</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>687403155.4620414</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3524835674.147523</v>
+        <v>3299079008.203762</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1294500577492834</v>
+        <v>0.1544793386952378</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0387467698202312</v>
+        <v>0.02757720694669346</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>40</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1762417919.3086</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3100634053.57998</v>
+        <v>3477903266.216735</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1043543010022806</v>
+        <v>0.1242525485162504</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03038571505331229</v>
+        <v>0.0321324478911782</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>34</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1550317057.45</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1701151254.659708</v>
+        <v>2069396483.490864</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1289163290708646</v>
+        <v>0.09501608655242939</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04987540487595318</v>
+        <v>0.0507837161843823</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>850575642.7926122</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1777321814.745358</v>
+        <v>1987461174.219481</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1228452422559678</v>
+        <v>0.1700723788244436</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05630569360016702</v>
+        <v>0.04120521594737718</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>888660909.2463875</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2917936432.342043</v>
+        <v>2331424803.793917</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1016393051507185</v>
+        <v>0.07142766792609168</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03336052779694326</v>
+        <v>0.0431644142217857</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>19</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1458968231.63136</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3997382557.458845</v>
+        <v>4980772781.989673</v>
       </c>
       <c r="F93" t="n">
-        <v>0.136175068320714</v>
+        <v>0.1004986872240507</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04083677330737925</v>
+        <v>0.04451012198563963</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>29</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1998691279.450584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2107868090.892159</v>
+        <v>2040373343.721652</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1300969577866904</v>
+        <v>0.1241306239348835</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0277267091466984</v>
+        <v>0.03770484495187144</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1053934057.756725</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2970547613.543784</v>
+        <v>3020857439.397324</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08450365360489072</v>
+        <v>0.13228165250788</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04569791766945031</v>
+        <v>0.0508430442136877</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>24</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1485273808.571474</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2211439279.080393</v>
+        <v>1809072968.106614</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1042875575820752</v>
+        <v>0.1299515754707195</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03149028893073257</v>
+        <v>0.03425100776368939</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1105719603.861442</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4163787876.921008</v>
+        <v>4081434911.393428</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1468615616022483</v>
+        <v>0.157794822568832</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01969414300666665</v>
+        <v>0.02327592726894334</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>32</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2081894007.942701</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3337101368.903393</v>
+        <v>3211248916.50924</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1273127854365262</v>
+        <v>0.1263134357815978</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03233283314718297</v>
+        <v>0.02739609696844852</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>26</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1668550691.932469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3113396968.445609</v>
+        <v>3063014652.672319</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09098488493139553</v>
+        <v>0.1019645689837428</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03488830502189066</v>
+        <v>0.02520936218220996</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>32</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1556698478.332431</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3637085020.403541</v>
+        <v>3274455258.325809</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1722700939268984</v>
+        <v>0.1259704053062001</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02724534448037123</v>
+        <v>0.0202716956758121</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>30</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1818542551.830513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2749871305.334925</v>
+        <v>2415460717.385144</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1962859946671112</v>
+        <v>0.1871409780439865</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04121733459421301</v>
+        <v>0.0529435217147221</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>42</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1374935708.590133</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_99.xlsx
+++ b/output/fit_clients/fit_round_99.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2378918104.637843</v>
+        <v>2448452215.175988</v>
       </c>
       <c r="F2" t="n">
-        <v>0.104084340176145</v>
+        <v>0.07552350005300443</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03254511876689688</v>
+        <v>0.02761938777963375</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1801838505.265535</v>
+        <v>2393041718.601292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1585532656998501</v>
+        <v>0.1324608273051632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0420419910073214</v>
+        <v>0.03457252969160808</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5155762689.317035</v>
+        <v>3621632311.483125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.139069472332163</v>
+        <v>0.1311318052959235</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03296280420853483</v>
+        <v>0.03700669612978475</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3591539439.86447</v>
+        <v>4249600826.476715</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07431025896144092</v>
+        <v>0.1070144245038587</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03384220019114717</v>
+        <v>0.04548694300269756</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1885781594.084978</v>
+        <v>2835421131.886064</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1159205266898027</v>
+        <v>0.09436657544768548</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03769708845495441</v>
+        <v>0.036337706852607</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2164246731.921241</v>
+        <v>2903883916.481179</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08035265168424739</v>
+        <v>0.07946164072528168</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03248939628880333</v>
+        <v>0.04194115926519787</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2722547576.443543</v>
+        <v>3586726207.560026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1541002438292753</v>
+        <v>0.1935410387666273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02161114165766118</v>
+        <v>0.02407386239262922</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2040243238.543777</v>
+        <v>1688608143.596059</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1431584386222251</v>
+        <v>0.1435089083997332</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03587096052537741</v>
+        <v>0.02519297955396681</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3956266778.00465</v>
+        <v>4502022930.84954</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1491415592349616</v>
+        <v>0.1918982182693914</v>
       </c>
       <c r="G10" t="n">
-        <v>0.041217094618593</v>
+        <v>0.03313603922486794</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2694698052.933167</v>
+        <v>3074916907.439245</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135958119309116</v>
+        <v>0.163522194210338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04731121157092344</v>
+        <v>0.04196839203776233</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2513247433.544381</v>
+        <v>3031712951.136345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1645470868337678</v>
+        <v>0.1455235646979426</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05140418210263932</v>
+        <v>0.04346615243794374</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3781984360.802894</v>
+        <v>4196820526.134238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06875749506676035</v>
+        <v>0.09774696894608446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02180325818417522</v>
+        <v>0.02189696570342212</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3729720172.539939</v>
+        <v>3453658826.882211</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1391386956274367</v>
+        <v>0.1564340515337173</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04353322413283027</v>
+        <v>0.03080074091762457</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1502865083.184804</v>
+        <v>1258741036.136542</v>
       </c>
       <c r="F15" t="n">
-        <v>0.108820572276471</v>
+        <v>0.09067936552050423</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03081444407128202</v>
+        <v>0.04059439255542927</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2472163687.925222</v>
+        <v>2460819981.29513</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1071906143672073</v>
+        <v>0.08600160553796055</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03494016517246217</v>
+        <v>0.03161726680003602</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4722164151.815919</v>
+        <v>3316805595.525178</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1174196436364257</v>
+        <v>0.1273447295754874</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04281598747890878</v>
+        <v>0.03474956280627645</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3597718610.236069</v>
+        <v>2927505769.3295</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1421544202560046</v>
+        <v>0.1473355231380195</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0300822099234743</v>
+        <v>0.03388470773442177</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>913074342.8381102</v>
+        <v>1344943251.715238</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1472821312085646</v>
+        <v>0.1290374350774255</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02460648329245121</v>
+        <v>0.02597854309740355</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2252922688.707945</v>
+        <v>2490422383.806193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1393674722232756</v>
+        <v>0.1395084212838433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02485492565062475</v>
+        <v>0.02454018717621386</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2393781996.389705</v>
+        <v>1974410805.682407</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07630579620550745</v>
+        <v>0.08513765234017323</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03903687153693267</v>
+        <v>0.03030574288052244</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2556543991.643826</v>
+        <v>2739864592.15325</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08765043097522462</v>
+        <v>0.1211334739960333</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04157849999285095</v>
+        <v>0.03699475257811261</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1393704315.508229</v>
+        <v>1043003948.32574</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1141963267327988</v>
+        <v>0.173589159747165</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04172341120012248</v>
+        <v>0.03502344933685827</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2527899078.364363</v>
+        <v>3819187622.332694</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1097749749767336</v>
+        <v>0.1364603516201348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02734727549899206</v>
+        <v>0.02329579407313102</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1332037343.401327</v>
+        <v>1306781213.618344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0781511302091219</v>
+        <v>0.119086707198998</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02784987945254791</v>
+        <v>0.02215383702138349</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1063638996.245047</v>
+        <v>983977036.4408225</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08156094887288322</v>
+        <v>0.1070552040876302</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02431290579989089</v>
+        <v>0.03840649549169948</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3033811867.91866</v>
+        <v>4655739604.604517</v>
       </c>
       <c r="F27" t="n">
-        <v>0.140123627394546</v>
+        <v>0.1010860305516971</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02075519271762601</v>
+        <v>0.01828463596531826</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2593885342.716277</v>
+        <v>3212150614.595515</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1385451149120003</v>
+        <v>0.1369814458008316</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04904554959806082</v>
+        <v>0.04388567690265912</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4630225188.860067</v>
+        <v>4100703564.34182</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1065215056161227</v>
+        <v>0.09774569273590136</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04634128229361852</v>
+        <v>0.03339771901695512</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2368299900.67515</v>
+        <v>1791972468.018005</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1250150116734005</v>
+        <v>0.1060222857071873</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03434556238875029</v>
+        <v>0.03641707194200029</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1070894805.832112</v>
+        <v>1354749316.21931</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0725484504182299</v>
+        <v>0.09958766207602186</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04865958206016982</v>
+        <v>0.0406233953560362</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1557582794.868963</v>
+        <v>1415598646.107058</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07999946621518719</v>
+        <v>0.0853653466990662</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03607236028136879</v>
+        <v>0.0265312671406651</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3004402445.114999</v>
+        <v>2273874004.725658</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1509242007525299</v>
+        <v>0.1854897583357842</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06071911470493833</v>
+        <v>0.03785788527476836</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1297985687.944409</v>
+        <v>1217334047.901944</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07832114211185508</v>
+        <v>0.1164766333611093</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02450179202519583</v>
+        <v>0.02685255944862346</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1348553149.212683</v>
+        <v>1065154045.615926</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1075172997198214</v>
+        <v>0.08396143999192665</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03311804756019205</v>
+        <v>0.03226216171287073</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2700012019.21259</v>
+        <v>2050476022.335877</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1729642008425999</v>
+        <v>0.1145239525781317</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01971406193063148</v>
+        <v>0.0223011645277282</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2295526580.871925</v>
+        <v>2355985862.279311</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07050780698372684</v>
+        <v>0.09530100509809289</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02893454948230489</v>
+        <v>0.03152045774314591</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1345648491.527572</v>
+        <v>1332351596.905335</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1052044295906696</v>
+        <v>0.09002883282275743</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03125888688694487</v>
+        <v>0.03359035695583676</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1422587959.072596</v>
+        <v>1849486723.689409</v>
       </c>
       <c r="F39" t="n">
-        <v>0.18755811852312</v>
+        <v>0.1386912852516854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02462345209867996</v>
+        <v>0.02271199817742617</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1206917983.241289</v>
+        <v>1230090709.954324</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1258345220179125</v>
+        <v>0.1313678423736527</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05529181380687618</v>
+        <v>0.05644999556505212</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1851913386.011388</v>
+        <v>2362224397.775108</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1377599185961391</v>
+        <v>0.1197950829551585</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03279149791222577</v>
+        <v>0.04598696834403439</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4199130334.100431</v>
+        <v>4304919489.208552</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1043592142658337</v>
+        <v>0.08269101775442995</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03693143140225284</v>
+        <v>0.04494699941923664</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2746936236.968583</v>
+        <v>2017696865.477662</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1682314934506068</v>
+        <v>0.1768884407261244</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02485829391379967</v>
+        <v>0.01840844844837804</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1467655862.606895</v>
+        <v>1537334091.977432</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09389796703233635</v>
+        <v>0.09983038721896849</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02330390225787384</v>
+        <v>0.02398131895236575</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2076261582.199105</v>
+        <v>1625258902.949356</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1697549998204285</v>
+        <v>0.1209959411594361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0458318129034185</v>
+        <v>0.04339327837074451</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5272355792.471478</v>
+        <v>4360706419.590831</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1297005658925557</v>
+        <v>0.159710611789504</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03862809421909853</v>
+        <v>0.05009287471384897</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4872082868.64728</v>
+        <v>3353218984.822937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2012779455570935</v>
+        <v>0.1583867164897149</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05892505783471014</v>
+        <v>0.04693229554053276</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3996062938.589655</v>
+        <v>3176579294.551496</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09384466426904779</v>
+        <v>0.09343563136956494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03690351980667891</v>
+        <v>0.03134630944289219</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1506708787.854722</v>
+        <v>1628855655.906163</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1798703570691467</v>
+        <v>0.1751102207856089</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0442015082095813</v>
+        <v>0.0374115454659961</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3600234703.882172</v>
+        <v>3932623236.384036</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1513472836181491</v>
+        <v>0.1588021177111365</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04658328257462351</v>
+        <v>0.03791523477406929</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1194508172.342309</v>
+        <v>1200454685.822894</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1880025145797524</v>
+        <v>0.1394541411740546</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05013194370827943</v>
+        <v>0.04333155452909535</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4267785750.324748</v>
+        <v>5075369866.822709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1167228782521235</v>
+        <v>0.1334588966842515</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0396080560880443</v>
+        <v>0.03988340432561552</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3051232586.743746</v>
+        <v>2350284559.847362</v>
       </c>
       <c r="F53" t="n">
-        <v>0.174122732686859</v>
+        <v>0.1855408004930407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02335902047538376</v>
+        <v>0.02842505116426431</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3297570019.366412</v>
+        <v>3483023321.151142</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1093661169616237</v>
+        <v>0.1486659715540357</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05224335712037826</v>
+        <v>0.03848305202382046</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3803284059.956274</v>
+        <v>3656341500.312183</v>
       </c>
       <c r="F55" t="n">
-        <v>0.195058770849159</v>
+        <v>0.1466367923772568</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02503248438866346</v>
+        <v>0.02427517900347562</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1492585508.635811</v>
+        <v>1332207756.090676</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1370917776228439</v>
+        <v>0.1585249094148049</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04811505964475764</v>
+        <v>0.05127107577996599</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3146675037.340814</v>
+        <v>3955744406.875597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1336523047779601</v>
+        <v>0.1430793368801745</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02372199415611256</v>
+        <v>0.02251228516670886</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1821588185.743465</v>
+        <v>1876238509.230104</v>
       </c>
       <c r="F58" t="n">
-        <v>0.19464767457327</v>
+        <v>0.1429617662652289</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03054676719806402</v>
+        <v>0.0334542793646771</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5135701505.419106</v>
+        <v>3407682746.017106</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1142813700796333</v>
+        <v>0.08115583598879958</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04920046330345011</v>
+        <v>0.03519319222068485</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2407862589.831726</v>
+        <v>2775371548.386727</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1661910409719169</v>
+        <v>0.1523643250799973</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02346749490496408</v>
+        <v>0.02408133414568515</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2095530760.696879</v>
+        <v>2812289132.938332</v>
       </c>
       <c r="F61" t="n">
-        <v>0.17272269070435</v>
+        <v>0.1177206236822941</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02876210183944284</v>
+        <v>0.03203030681690792</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1653953390.702993</v>
+        <v>1760952332.750599</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1241409462848922</v>
+        <v>0.1420728261524158</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04802569990969558</v>
+        <v>0.03330063093278107</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4973621807.502976</v>
+        <v>4704448444.427256</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1069597723299662</v>
+        <v>0.06846816444482448</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03763968262863068</v>
+        <v>0.02961245836678747</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3543930713.728358</v>
+        <v>5087854239.631372</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1677829391095611</v>
+        <v>0.1442083192849841</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02969359195136406</v>
+        <v>0.02468988801454492</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4617760071.332392</v>
+        <v>5929446019.050977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1228604070880592</v>
+        <v>0.1687986685389586</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02234935275950362</v>
+        <v>0.03165639362566374</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5067996528.551262</v>
+        <v>4464670230.719391</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1185484112899376</v>
+        <v>0.1447241077137968</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03834031839926786</v>
+        <v>0.0416770573143475</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3430310361.727008</v>
+        <v>2958263763.538858</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06499597584905173</v>
+        <v>0.07653240750651649</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03657316318815258</v>
+        <v>0.04850690955240424</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5954034864.680201</v>
+        <v>5101532059.495488</v>
       </c>
       <c r="F68" t="n">
-        <v>0.117053334454219</v>
+        <v>0.1557372525539476</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03490125815277798</v>
+        <v>0.03739020143254323</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2020300571.109207</v>
+        <v>1998456576.84939</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1230447248329974</v>
+        <v>0.1370183119931905</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05040160153778375</v>
+        <v>0.05384070969083352</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3391800147.527862</v>
+        <v>3575209056.236637</v>
       </c>
       <c r="F70" t="n">
-        <v>0.100064380429672</v>
+        <v>0.0756442440475746</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04189201072947341</v>
+        <v>0.03045785178640042</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4613006901.247698</v>
+        <v>3724811482.142797</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1176121338065571</v>
+        <v>0.1467640630025787</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02142002686026366</v>
+        <v>0.02588638148235668</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1482834398.905565</v>
+        <v>1856826996.409495</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1060678279663098</v>
+        <v>0.1051144997308169</v>
       </c>
       <c r="G72" t="n">
-        <v>0.044608662136476</v>
+        <v>0.04752361420845469</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2721791521.90159</v>
+        <v>2820716761.155164</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07761851417351594</v>
+        <v>0.08865562895277193</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04171307281637635</v>
+        <v>0.03454832446806021</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3616777916.543697</v>
+        <v>3374722524.023026</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1501887108330202</v>
+        <v>0.1408953731790604</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02404619265018965</v>
+        <v>0.02141792861548599</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1868259033.500952</v>
+        <v>1684631760.853737</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1411567865714835</v>
+        <v>0.1578129233369688</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02953470436614065</v>
+        <v>0.03673472520183999</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4161967092.440801</v>
+        <v>5225300687.945785</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07634280743730337</v>
+        <v>0.1198822050952133</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02719363423447349</v>
+        <v>0.03303201939492616</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2238502306.368382</v>
+        <v>1449857786.53874</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1752951136878007</v>
+        <v>0.1330156708051503</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02610989850146522</v>
+        <v>0.02316572878829698</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3283111676.758965</v>
+        <v>3653716950.624217</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09685822923992887</v>
+        <v>0.1302291838862608</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03984676637151511</v>
+        <v>0.04515904377556391</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1488512492.588523</v>
+        <v>1274302665.590908</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1158342817914427</v>
+        <v>0.1640979205848294</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03275341972562747</v>
+        <v>0.03263919771114783</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5580021038.116363</v>
+        <v>4447960977.946138</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07646983365807948</v>
+        <v>0.09216011616190067</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0292944147608147</v>
+        <v>0.02479785154706108</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5171988066.3745</v>
+        <v>4042763156.782723</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1053673436652367</v>
+        <v>0.1140120601363871</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02027964872318249</v>
+        <v>0.02907387263518784</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4442379819.703601</v>
+        <v>3736407627.228698</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2139887318892831</v>
+        <v>0.1427220295450455</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02696936939561793</v>
+        <v>0.01863955537302504</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2291924361.335287</v>
+        <v>1612294999.442782</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1424400046436124</v>
+        <v>0.1421173116099691</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03902482372996057</v>
+        <v>0.04341964141450409</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1566322274.339527</v>
+        <v>2219080489.800686</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09265811725656259</v>
+        <v>0.10046464618995</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03193897489722887</v>
+        <v>0.04371179659682842</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2840735152.668639</v>
+        <v>3517562213.333161</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1849422679237716</v>
+        <v>0.1172564490012266</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04043728225200753</v>
+        <v>0.04416849290952496</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1959299822.136568</v>
+        <v>1883063731.226837</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1285434879126948</v>
+        <v>0.1186466013960203</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754033315327902</v>
+        <v>0.01708907599892651</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1293736216.381779</v>
+        <v>981191682.4529347</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1862863483001776</v>
+        <v>0.1243386494959668</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03393637837217144</v>
+        <v>0.03609045723204161</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3299079008.203762</v>
+        <v>2514807643.347346</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1544793386952378</v>
+        <v>0.1621339828558274</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02757720694669346</v>
+        <v>0.03771861395356228</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3477903266.216735</v>
+        <v>2342032014.778904</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1242525485162504</v>
+        <v>0.1373678270972316</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0321324478911782</v>
+        <v>0.03590460779982192</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2069396483.490864</v>
+        <v>1339953551.587388</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09501608655242939</v>
+        <v>0.09030748452892236</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0507837161843823</v>
+        <v>0.05584896686915544</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1987461174.219481</v>
+        <v>1706350047.242222</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1700723788244436</v>
+        <v>0.1338997669734553</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04120521594737718</v>
+        <v>0.05007031190563972</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2331424803.793917</v>
+        <v>2505271110.034248</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07142766792609168</v>
+        <v>0.0743115094547627</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0431644142217857</v>
+        <v>0.04506765554466913</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4980772781.989673</v>
+        <v>3356689856.198943</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1004986872240507</v>
+        <v>0.09206666080812717</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04451012198563963</v>
+        <v>0.04967433113287895</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2040373343.721652</v>
+        <v>2465371320.053513</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1241306239348835</v>
+        <v>0.168781491613534</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03770484495187144</v>
+        <v>0.03387301075822807</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3020857439.397324</v>
+        <v>3097564883.852628</v>
       </c>
       <c r="F95" t="n">
-        <v>0.13228165250788</v>
+        <v>0.1164503161241331</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0508430442136877</v>
+        <v>0.04476270538734067</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1809072968.106614</v>
+        <v>1746777170.244836</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1299515754707195</v>
+        <v>0.08846746966705117</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03425100776368939</v>
+        <v>0.03729649281654372</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4081434911.393428</v>
+        <v>3779294579.230001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.157794822568832</v>
+        <v>0.1144664404586201</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02327592726894334</v>
+        <v>0.02591296424706208</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3211248916.50924</v>
+        <v>2885837071.190009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1263134357815978</v>
+        <v>0.1218556459503029</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02739609696844852</v>
+        <v>0.02636450750631866</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3063014652.672319</v>
+        <v>2887422853.721508</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1019645689837428</v>
+        <v>0.1185622051456556</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02520936218220996</v>
+        <v>0.03147766822989426</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3274455258.325809</v>
+        <v>3561451396.336133</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1259704053062001</v>
+        <v>0.1338118949058556</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0202716956758121</v>
+        <v>0.01787091153343892</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2415460717.385144</v>
+        <v>3237405360.504021</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1871409780439865</v>
+        <v>0.2067077223797126</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0529435217147221</v>
+        <v>0.03526440219342057</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_99.xlsx
+++ b/output/fit_clients/fit_round_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2448452215.175988</v>
+        <v>1556564237.662314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07552350005300443</v>
+        <v>0.07269778531009681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02761938777963375</v>
+        <v>0.03469716222221027</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2393041718.601292</v>
+        <v>2123526393.710057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1324608273051632</v>
+        <v>0.1342907978915352</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03457252969160808</v>
+        <v>0.0338837526061076</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3621632311.483125</v>
+        <v>3319135493.745948</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1311318052959235</v>
+        <v>0.1653709963680479</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03700669612978475</v>
+        <v>0.02344008052925519</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>98</v>
+      </c>
+      <c r="K4" t="n">
+        <v>109.537758368164</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4249600826.476715</v>
+        <v>2625209426.089726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1070144245038587</v>
+        <v>0.08155310039600956</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04548694300269756</v>
+        <v>0.04205084297273304</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>41</v>
+      </c>
+      <c r="J5" t="n">
+        <v>97</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2835421131.886064</v>
+        <v>2114523069.879285</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09436657544768548</v>
+        <v>0.1181858197234145</v>
       </c>
       <c r="G6" t="n">
-        <v>0.036337706852607</v>
+        <v>0.0380329768391937</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2903883916.481179</v>
+        <v>2457078907.013822</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07946164072528168</v>
+        <v>0.09622205015709166</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04194115926519787</v>
+        <v>0.04455507425150237</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3586726207.560026</v>
+        <v>3156321716.900952</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1935410387666273</v>
+        <v>0.1871306406843433</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02407386239262922</v>
+        <v>0.02488719748245758</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="n">
+        <v>97</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1688608143.596059</v>
+        <v>2180741861.701187</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1435089083997332</v>
+        <v>0.1348339207627764</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02519297955396681</v>
+        <v>0.03153596136585877</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4502022930.84954</v>
+        <v>3626542361.21301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1918982182693914</v>
+        <v>0.1332010845821888</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03313603922486794</v>
+        <v>0.04044522027772676</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>93</v>
+      </c>
+      <c r="J10" t="n">
+        <v>98</v>
+      </c>
+      <c r="K10" t="n">
+        <v>145.4782999666628</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3074916907.439245</v>
+        <v>3093357923.4295</v>
       </c>
       <c r="F11" t="n">
-        <v>0.163522194210338</v>
+        <v>0.1713762607948759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04196839203776233</v>
+        <v>0.03355568271852515</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41</v>
+      </c>
+      <c r="J11" t="n">
+        <v>98</v>
+      </c>
+      <c r="K11" t="n">
+        <v>105.4410652431882</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3031712951.136345</v>
+        <v>2122008801.349699</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1455235646979426</v>
+        <v>0.1730200139323178</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04346615243794374</v>
+        <v>0.04767961488417186</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4196820526.134238</v>
+        <v>4522172018.370416</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09774696894608446</v>
+        <v>0.1014912262503227</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02189696570342212</v>
+        <v>0.01993547343653361</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>49</v>
+      </c>
+      <c r="J13" t="n">
+        <v>99</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3453658826.882211</v>
+        <v>2679281044.185758</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1564340515337173</v>
+        <v>0.1620200698879118</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03080074091762457</v>
+        <v>0.03884110127715996</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" t="n">
+        <v>97</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1258741036.136542</v>
+        <v>1670604322.70911</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09067936552050423</v>
+        <v>0.07493195544569967</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04059439255542927</v>
+        <v>0.0481714003486283</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2460819981.29513</v>
+        <v>2066616905.541251</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08600160553796055</v>
+        <v>0.1086926225669175</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03161726680003602</v>
+        <v>0.05063005179309154</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3316805595.525178</v>
+        <v>3358235869.978326</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1273447295754874</v>
+        <v>0.1707423660527981</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03474956280627645</v>
+        <v>0.04387603678489187</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>48</v>
+      </c>
+      <c r="J17" t="n">
+        <v>98</v>
+      </c>
+      <c r="K17" t="n">
+        <v>99.96422252915617</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2927505769.3295</v>
+        <v>3256888216.790099</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1473355231380195</v>
+        <v>0.1305632492254469</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03388470773442177</v>
+        <v>0.0316541333130338</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>95</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1344943251.715238</v>
+        <v>935750833.6822498</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1290374350774255</v>
+        <v>0.1797113102400448</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02597854309740355</v>
+        <v>0.02457932594950088</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2490422383.806193</v>
+        <v>2082989763.012487</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1395084212838433</v>
+        <v>0.1134150807761192</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02454018717621386</v>
+        <v>0.02469585522923981</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1974410805.682407</v>
+        <v>2058170463.283101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08513765234017323</v>
+        <v>0.101317420730243</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03030574288052244</v>
+        <v>0.03552506271985308</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2739864592.15325</v>
+        <v>3971421013.832778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1211334739960333</v>
+        <v>0.1134619203300875</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03699475257811261</v>
+        <v>0.03502971161320657</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>24</v>
+      </c>
+      <c r="J22" t="n">
+        <v>99</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1043003948.32574</v>
+        <v>1202818946.147825</v>
       </c>
       <c r="F23" t="n">
-        <v>0.173589159747165</v>
+        <v>0.1833084412990237</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03502344933685827</v>
+        <v>0.0390560886694512</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3819187622.332694</v>
+        <v>4146182523.113444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1364603516201348</v>
+        <v>0.09337834627137354</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02329579407313102</v>
+        <v>0.02304101878893962</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>99</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1306781213.618344</v>
+        <v>1338250437.829196</v>
       </c>
       <c r="F25" t="n">
-        <v>0.119086707198998</v>
+        <v>0.09150883198170036</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02215383702138349</v>
+        <v>0.02761280786697757</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>983977036.4408225</v>
+        <v>1449957008.456181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1070552040876302</v>
+        <v>0.09345918111131571</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03840649549169948</v>
+        <v>0.02442209552010681</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4655739604.604517</v>
+        <v>3438479875.404903</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1010860305516971</v>
+        <v>0.1173079914517223</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01828463596531826</v>
+        <v>0.02551088326347089</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39</v>
+      </c>
+      <c r="J27" t="n">
+        <v>98</v>
+      </c>
+      <c r="K27" t="n">
+        <v>98.56950481894611</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3212150614.595515</v>
+        <v>2995187138.090211</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1369814458008316</v>
+        <v>0.1009468832125737</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04388567690265912</v>
+        <v>0.04512342285214239</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>23</v>
+      </c>
+      <c r="J28" t="n">
+        <v>95</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4100703564.34182</v>
+        <v>5727743723.075825</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09774569273590136</v>
+        <v>0.1391270516635662</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03339771901695512</v>
+        <v>0.04022341651813033</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>93</v>
+      </c>
+      <c r="J29" t="n">
+        <v>99</v>
+      </c>
+      <c r="K29" t="n">
+        <v>192.3170208431183</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1791972468.018005</v>
+        <v>1883965295.966996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1060222857071873</v>
+        <v>0.1076482321102691</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03641707194200029</v>
+        <v>0.02531797100402318</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1354749316.21931</v>
+        <v>1468974383.096082</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09958766207602186</v>
+        <v>0.0678881430353359</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0406233953560362</v>
+        <v>0.04130181077680731</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1415598646.107058</v>
+        <v>1840149088.926419</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0853653466990662</v>
+        <v>0.09327220831599839</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0265312671406651</v>
+        <v>0.03415178375045248</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2273874004.725658</v>
+        <v>2295942376.137193</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1854897583357842</v>
+        <v>0.1564731361097772</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03785788527476836</v>
+        <v>0.04656431617082494</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1217334047.901944</v>
+        <v>1132962423.216909</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1164766333611093</v>
+        <v>0.1148101524187475</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02685255944862346</v>
+        <v>0.01856634276229319</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1065154045.615926</v>
+        <v>1030244309.413</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08396143999192665</v>
+        <v>0.09489337198026952</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03226216171287073</v>
+        <v>0.04049402381985358</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2050476022.335877</v>
+        <v>3136429724.508245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1145239525781317</v>
+        <v>0.152846326598231</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0223011645277282</v>
+        <v>0.02334460389193759</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2355985862.279311</v>
+        <v>2358547099.739269</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09530100509809289</v>
+        <v>0.07407989159269231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03152045774314591</v>
+        <v>0.03002077399291414</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1332351596.905335</v>
+        <v>1830561320.447152</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09002883282275743</v>
+        <v>0.1047163732517782</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03359035695583676</v>
+        <v>0.03310480800115704</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1849486723.689409</v>
+        <v>1794984325.243343</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1386912852516854</v>
+        <v>0.160680744089116</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02271199817742617</v>
+        <v>0.02863670804291684</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1230090709.954324</v>
+        <v>1098352532.310125</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1313678423736527</v>
+        <v>0.1573857766668305</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05644999556505212</v>
+        <v>0.04189007196720745</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2362224397.775108</v>
+        <v>2855171480.654441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1197950829551585</v>
+        <v>0.1648440429027762</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04598696834403439</v>
+        <v>0.04101569694037919</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4304919489.208552</v>
+        <v>4316504716.011507</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08269101775442995</v>
+        <v>0.1095193399156234</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04494699941923664</v>
+        <v>0.04575008889491546</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>38</v>
+      </c>
+      <c r="J42" t="n">
+        <v>99</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2017696865.477662</v>
+        <v>2619172178.64886</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1768884407261244</v>
+        <v>0.1857382138229886</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01840844844837804</v>
+        <v>0.02532782504102252</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1537334091.977432</v>
+        <v>1747907181.100476</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09983038721896849</v>
+        <v>0.07453599112526081</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02398131895236575</v>
+        <v>0.03430863858233091</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1625258902.949356</v>
+        <v>2029939043.195793</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1209959411594361</v>
+        <v>0.1425786671356558</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04339327837074451</v>
+        <v>0.05219648676655034</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4360706419.590831</v>
+        <v>4202347047.496609</v>
       </c>
       <c r="F46" t="n">
-        <v>0.159710611789504</v>
+        <v>0.1293074349644704</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05009287471384897</v>
+        <v>0.04449785366405156</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>57</v>
+      </c>
+      <c r="J46" t="n">
+        <v>98</v>
+      </c>
+      <c r="K46" t="n">
+        <v>165.7830793894644</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3353218984.822937</v>
+        <v>3341229573.707333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1583867164897149</v>
+        <v>0.1515544822250085</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04693229554053276</v>
+        <v>0.05213525180861245</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>96</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3176579294.551496</v>
+        <v>4043598238.226517</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09343563136956494</v>
+        <v>0.0928766510105524</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03134630944289219</v>
+        <v>0.02510371243180736</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37</v>
+      </c>
+      <c r="J48" t="n">
+        <v>98</v>
+      </c>
+      <c r="K48" t="n">
+        <v>167.3917061975445</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1628855655.906163</v>
+        <v>1473443525.009887</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1751102207856089</v>
+        <v>0.1229263529820432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0374115454659961</v>
+        <v>0.02777910591701277</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3932623236.384036</v>
+        <v>3947755571.447917</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1588021177111365</v>
+        <v>0.1618749164483304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03791523477406929</v>
+        <v>0.05336540404322844</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>34</v>
+      </c>
+      <c r="J50" t="n">
+        <v>99</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200454685.822894</v>
+        <v>1123500754.554993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1394541411740546</v>
+        <v>0.1615297493669225</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04333155452909535</v>
+        <v>0.04268881651867614</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5075369866.822709</v>
+        <v>5061778386.449523</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1334588966842515</v>
+        <v>0.09030691017465081</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03988340432561552</v>
+        <v>0.03850765800031104</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>76</v>
+      </c>
+      <c r="J52" t="n">
+        <v>99</v>
+      </c>
+      <c r="K52" t="n">
+        <v>173.0028756632005</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2350284559.847362</v>
+        <v>3593160381.31702</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1855408004930407</v>
+        <v>0.1339958464529116</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02842505116426431</v>
+        <v>0.02228692434858091</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3483023321.151142</v>
+        <v>4567995442.023728</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1486659715540357</v>
+        <v>0.1321953922133934</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03848305202382046</v>
+        <v>0.0519564150418707</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>44</v>
+      </c>
+      <c r="J54" t="n">
+        <v>99</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3656341500.312183</v>
+        <v>3194535137.232616</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1466367923772568</v>
+        <v>0.1690913442670421</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02427517900347562</v>
+        <v>0.02563940853347552</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>45</v>
+      </c>
+      <c r="J55" t="n">
+        <v>98</v>
+      </c>
+      <c r="K55" t="n">
+        <v>92.36888017444956</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1332207756.090676</v>
+        <v>1702829839.479227</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1585249094148049</v>
+        <v>0.1289361989822412</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05127107577996599</v>
+        <v>0.03647673307057196</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3955744406.875597</v>
+        <v>3825813197.663657</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1430793368801745</v>
+        <v>0.154212522837708</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02251228516670886</v>
+        <v>0.01844112584754028</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>37</v>
+      </c>
+      <c r="J57" t="n">
+        <v>99</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1876238509.230104</v>
+        <v>1338102209.424111</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1429617662652289</v>
+        <v>0.1257348568039329</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0334542793646771</v>
+        <v>0.02520200438916699</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3407682746.017106</v>
+        <v>3761946942.30017</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08115583598879958</v>
+        <v>0.1123633041376655</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03519319222068485</v>
+        <v>0.03240256016012567</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>48</v>
+      </c>
+      <c r="J59" t="n">
+        <v>99</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2775371548.386727</v>
+        <v>2691261415.294842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1523643250799973</v>
+        <v>0.1876800036485213</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02408133414568515</v>
+        <v>0.02942046714131322</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>97</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2812289132.938332</v>
+        <v>2137222492.764316</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1177206236822941</v>
+        <v>0.123860087299904</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03203030681690792</v>
+        <v>0.02269264655456083</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1760952332.750599</v>
+        <v>1460108120.208709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1420728261524158</v>
+        <v>0.1433596365668436</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03330063093278107</v>
+        <v>0.03980024401158281</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2656,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4704448444.427256</v>
+        <v>4853095752.119358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06846816444482448</v>
+        <v>0.07468568848010494</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02961245836678747</v>
+        <v>0.04284236710716137</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>49</v>
+      </c>
+      <c r="J63" t="n">
+        <v>98</v>
+      </c>
+      <c r="K63" t="n">
+        <v>148.0751182236547</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5087854239.631372</v>
+        <v>4751072466.689994</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1442083192849841</v>
+        <v>0.1616801350037156</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02468988801454492</v>
+        <v>0.03462532124803923</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>49</v>
+      </c>
+      <c r="J64" t="n">
+        <v>98</v>
+      </c>
+      <c r="K64" t="n">
+        <v>157.3085219741325</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5929446019.050977</v>
+        <v>5973828097.885806</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1687986685389586</v>
+        <v>0.1063687688132477</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03165639362566374</v>
+        <v>0.0235032410652834</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>80</v>
+      </c>
+      <c r="J65" t="n">
+        <v>99</v>
+      </c>
+      <c r="K65" t="n">
+        <v>169.2334299590325</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4464670230.719391</v>
+        <v>3672824298.269949</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1447241077137968</v>
+        <v>0.1226107242740441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0416770573143475</v>
+        <v>0.05077586664539595</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>48</v>
+      </c>
+      <c r="J66" t="n">
+        <v>99</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2958263763.538858</v>
+        <v>3077651368.317954</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07653240750651649</v>
+        <v>0.082401638381901</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04850690955240424</v>
+        <v>0.0408204822858512</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5101532059.495488</v>
+        <v>4496517532.344858</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1557372525539476</v>
+        <v>0.1006055113149347</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03739020143254323</v>
+        <v>0.04634691908856671</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>49</v>
+      </c>
+      <c r="J68" t="n">
+        <v>99</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1998456576.84939</v>
+        <v>2327044142.928125</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1370183119931905</v>
+        <v>0.1141982217959101</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05384070969083352</v>
+        <v>0.05449518005419399</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3575209056.236637</v>
+        <v>3225794420.968156</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0756442440475746</v>
+        <v>0.09709085558021564</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03045785178640042</v>
+        <v>0.04284443723299756</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>12</v>
+      </c>
+      <c r="J70" t="n">
+        <v>95</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3724811482.142797</v>
+        <v>5391619522.288743</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1467640630025787</v>
+        <v>0.1274208437218503</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02588638148235668</v>
+        <v>0.0293554030916794</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>80</v>
+      </c>
+      <c r="J71" t="n">
+        <v>99</v>
+      </c>
+      <c r="K71" t="n">
+        <v>170.5680912444052</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1856826996.409495</v>
+        <v>1742135873.823961</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1051144997308169</v>
+        <v>0.09873555384898952</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04752361420845469</v>
+        <v>0.05122578250785086</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3008,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2820716761.155164</v>
+        <v>2436771159.138297</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08865562895277193</v>
+        <v>0.07566803405539801</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03454832446806021</v>
+        <v>0.03861059023640912</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="n">
+        <v>63.030540336908</v>
       </c>
     </row>
     <row r="74">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3374722524.023026</v>
+        <v>2458496974.248506</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1408953731790604</v>
+        <v>0.1145455569006479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02141792861548599</v>
+        <v>0.03051710267455464</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>32</v>
+      </c>
+      <c r="J74" t="n">
+        <v>97</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1684631760.853737</v>
+        <v>2160162674.513998</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1578129233369688</v>
+        <v>0.1291318646151621</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03673472520183999</v>
+        <v>0.02856869031368215</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5225300687.945785</v>
+        <v>3974714871.139538</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1198822050952133</v>
+        <v>0.1141226210180966</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03303201939492616</v>
+        <v>0.02258376245975334</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>45</v>
+      </c>
+      <c r="J76" t="n">
+        <v>99</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1449857786.53874</v>
+        <v>1770659208.944073</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1330156708051503</v>
+        <v>0.1475077591915961</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02316572878829698</v>
+        <v>0.02428846840419571</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3653716950.624217</v>
+        <v>4758700937.225091</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1302291838862608</v>
+        <v>0.1037041916566089</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04515904377556391</v>
+        <v>0.04207207598844205</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>50</v>
+      </c>
+      <c r="J78" t="n">
+        <v>99</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1274302665.590908</v>
+        <v>1499818053.559757</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1640979205848294</v>
+        <v>0.1642433420129232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03263919771114783</v>
+        <v>0.03843656838873497</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4447960977.946138</v>
+        <v>3893526294.622783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09216011616190067</v>
+        <v>0.06796531203502575</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02479785154706108</v>
+        <v>0.0367387459014678</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>47</v>
+      </c>
+      <c r="J80" t="n">
+        <v>99</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4042763156.782723</v>
+        <v>4713514956.181851</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1140120601363871</v>
+        <v>0.1195402538403081</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02907387263518784</v>
+        <v>0.03271255677397904</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>45</v>
+      </c>
+      <c r="J81" t="n">
+        <v>98</v>
+      </c>
+      <c r="K81" t="n">
+        <v>136.7762853614494</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3736407627.228698</v>
+        <v>5225374220.549051</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1427220295450455</v>
+        <v>0.1880224404123951</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01863955537302504</v>
+        <v>0.0259220353188092</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>64</v>
+      </c>
+      <c r="J82" t="n">
+        <v>99</v>
+      </c>
+      <c r="K82" t="n">
+        <v>172.1505165928387</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1612294999.442782</v>
+        <v>1883882705.822173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1421173116099691</v>
+        <v>0.1326379190255753</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04341964141450409</v>
+        <v>0.03324918344310249</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2219080489.800686</v>
+        <v>2563782657.343425</v>
       </c>
       <c r="F84" t="n">
-        <v>0.10046464618995</v>
+        <v>0.1208951587727033</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04371179659682842</v>
+        <v>0.04775458933050179</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3517562213.333161</v>
+        <v>3271512797.044684</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1172564490012266</v>
+        <v>0.1714423157325898</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04416849290952496</v>
+        <v>0.04111939586064376</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>98</v>
+      </c>
+      <c r="K85" t="n">
+        <v>116.0930957173741</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1883063731.226837</v>
+        <v>2756770104.844583</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1186466013960203</v>
+        <v>0.1264449849684944</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01708907599892651</v>
+        <v>0.02593570098840189</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>981191682.4529347</v>
+        <v>1388620683.509691</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1243386494959668</v>
+        <v>0.1797964357885043</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609045723204161</v>
+        <v>0.0389552379324386</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2514807643.347346</v>
+        <v>3293252767.634597</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1621339828558274</v>
+        <v>0.1080642183572748</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03771861395356228</v>
+        <v>0.03159192700595616</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16</v>
+      </c>
+      <c r="J88" t="n">
+        <v>98</v>
+      </c>
+      <c r="K88" t="n">
+        <v>115.3975378048068</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2342032014.778904</v>
+        <v>2380425610.545016</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1373678270972316</v>
+        <v>0.1277952042587676</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03590460779982192</v>
+        <v>0.02850087653806042</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1339953551.587388</v>
+        <v>1977127902.402124</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09030748452892236</v>
+        <v>0.1228228155399781</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05584896686915544</v>
+        <v>0.03706052438657492</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1706350047.242222</v>
+        <v>1792353582.106719</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1338997669734553</v>
+        <v>0.1647187218674845</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05007031190563972</v>
+        <v>0.03954925539531685</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2505271110.034248</v>
+        <v>2154245614.304056</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0743115094547627</v>
+        <v>0.09027407597058455</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04506765554466913</v>
+        <v>0.04295727738110024</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3724,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3356689856.198943</v>
+        <v>4194920624.114142</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09206666080812717</v>
+        <v>0.09572435237310489</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04967433113287895</v>
+        <v>0.03519114250675411</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>45</v>
+      </c>
+      <c r="J93" t="n">
+        <v>98</v>
+      </c>
+      <c r="K93" t="n">
+        <v>150.6929753616533</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2465371320.053513</v>
+        <v>1520983225.348072</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168781491613534</v>
+        <v>0.1383700746138614</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03387301075822807</v>
+        <v>0.04102592238756324</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3097564883.852628</v>
+        <v>2044708834.295973</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1164503161241331</v>
+        <v>0.1005620624838565</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04476270538734067</v>
+        <v>0.0496872970501784</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1746777170.244836</v>
+        <v>1691908487.675277</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08846746966705117</v>
+        <v>0.08764362433622518</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03729649281654372</v>
+        <v>0.03744280153265012</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3779294579.230001</v>
+        <v>3993011233.709148</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1144664404586201</v>
+        <v>0.1553780539947077</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02591296424706208</v>
+        <v>0.02528115956470474</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>47</v>
+      </c>
+      <c r="J97" t="n">
+        <v>99</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2885837071.190009</v>
+        <v>3141194469.572383</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1218556459503029</v>
+        <v>0.1248135802972215</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02636450750631866</v>
+        <v>0.02344924829702615</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>21</v>
+      </c>
+      <c r="J98" t="n">
+        <v>93</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2887422853.721508</v>
+        <v>3275501295.50591</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1185622051456556</v>
+        <v>0.1114157825985534</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03147766822989426</v>
+        <v>0.03524812159635798</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3561451396.336133</v>
+        <v>4321441015.468116</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1338118949058556</v>
+        <v>0.1314800675281483</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01787091153343892</v>
+        <v>0.02760257220400436</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>40</v>
+      </c>
+      <c r="J100" t="n">
+        <v>99</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3237405360.504021</v>
+        <v>2715752863.457978</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2067077223797126</v>
+        <v>0.1727935945248666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03526440219342057</v>
+        <v>0.04945696547522348</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
